--- a/Sprint1_backlog.xlsx
+++ b/Sprint1_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lachl\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE13A16C-5600-4EC6-A316-FF4887E2EB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7705A3E-FCD6-4EEE-8387-B30F1164D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2 Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Tasks</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Mathew</t>
   </si>
   <si>
-    <t>Mattew's Research</t>
-  </si>
-  <si>
     <t>Quiz Game Page</t>
   </si>
   <si>
@@ -211,13 +208,19 @@
     <t>Ruaf</t>
   </si>
   <si>
-    <t>Research and get working</t>
-  </si>
-  <si>
     <t>Matt</t>
   </si>
   <si>
     <t>Alek</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>Cloud intigration Research</t>
   </si>
 </sst>
 </file>
@@ -267,32 +270,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -310,6 +293,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -396,46 +394,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -443,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -467,128 +428,131 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,8 +622,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Progression</a:t>
+              <a:t>Sprint</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Burndown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -723,19 +692,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,7 +741,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1954,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,32 +1942,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="39"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2010,7 +1979,7 @@
       <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
@@ -2031,800 +2000,824 @@
         <v>6</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="69">
+      <c r="D3" s="50"/>
+      <c r="E3" s="55">
         <v>1</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="55">
         <f t="shared" ref="F3:F29" si="0">E3 - SUM(I3:M3)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="31" t="str">
+      <c r="O3" s="27" t="str">
         <f>IF(F3 = 0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="69">
+      <c r="D4" s="51"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="31" t="str">
+      <c r="O4" s="27" t="str">
         <f t="shared" ref="O4:O29" si="1">IF(F4 = 0,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="56">
         <v>2</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="22">
         <v>2</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="25"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="56">
         <v>2</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="22">
         <v>2</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="25"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="56">
         <v>2</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="22">
         <v>2</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="25"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="70">
+      <c r="A8" s="72"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="56">
         <v>2</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="25"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="69">
+      <c r="D9" s="51"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="55">
         <f>SUM(E10:E12) - SUM(I10:M12)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="70">
+      <c r="A10" s="60"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="56">
         <v>2</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="25">
+      <c r="I10" s="22"/>
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="70">
+      <c r="A11" s="60"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="56">
         <v>2</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>59</v>
+      <c r="G11" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="18"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="70">
+      <c r="A12" s="60"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="56">
         <v>2</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>60</v>
+      <c r="G12" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="64" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="70">
+      <c r="D13" s="51"/>
+      <c r="E13" s="56">
         <v>2</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="55">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="65" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="71">
+      <c r="D14" s="52"/>
+      <c r="E14" s="57">
         <v>3</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="31" t="str">
+      <c r="O14" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69">
+      <c r="D15" s="50"/>
+      <c r="E15" s="55">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>59</v>
+      <c r="G15" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="31" t="str">
+      <c r="O15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="69">
+      <c r="D16" s="51"/>
+      <c r="E16" s="56">
+        <v>1</v>
+      </c>
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>59</v>
+      <c r="G16" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="18"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="69">
+      <c r="D17" s="52"/>
+      <c r="E17" s="57">
+        <v>1</v>
+      </c>
+      <c r="F17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="22">
+        <v>1</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="31" t="str">
+      <c r="M17" s="15"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="69">
+      <c r="D18" s="50"/>
+      <c r="E18" s="55">
         <v>3</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="31" t="str">
+      <c r="O18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="70">
+      <c r="D19" s="51"/>
+      <c r="E19" s="56">
         <v>6</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="18"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="31" t="str">
+      <c r="O19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="64" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="70">
+      <c r="D20" s="51"/>
+      <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="18"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="31" t="str">
+      <c r="O20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69">
+      <c r="A21" s="28"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="31" t="str">
+      <c r="O21" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="70">
+      <c r="C22" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="56">
         <v>1</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="31" t="str">
+      <c r="N22" s="25"/>
+      <c r="O22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="56">
+        <v>1</v>
+      </c>
+      <c r="F23" s="55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="70">
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="57">
         <v>1</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="31" t="str">
+      <c r="G24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="72">
-        <v>1</v>
-      </c>
-      <c r="F24" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="69">
+      <c r="D25" s="53"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="31" t="str">
+      <c r="L25" s="14"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="69">
+      <c r="A26" s="27"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="31" t="str">
+      <c r="G26" s="67"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="69">
+      <c r="A27" s="29"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="31" t="str">
+      <c r="G27" s="34"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="73">
+      <c r="D28" s="53"/>
+      <c r="E28" s="58">
         <v>5</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="10">
         <v>1</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="31" t="str">
+      <c r="L28" s="14"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="69">
+      <c r="A29" s="29"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="31" t="str">
+      <c r="G29" s="34"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -2832,7 +2825,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M30" s="8"/>
-      <c r="N30" s="37"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M31" s="8"/>
@@ -2923,37 +2916,37 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM('Sprint 2 Backlog'!E:E)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2975,23 +2968,23 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:I)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:J)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:K)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:L)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:M)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint1_backlog.xlsx
+++ b/Sprint1_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lachl\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7705A3E-FCD6-4EEE-8387-B30F1164D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D8AC9-27EE-48BB-8C5D-B0B851C076DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3684" windowWidth="18000" windowHeight="8676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2 Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Tasks</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Database setup</t>
   </si>
   <si>
-    <t>Set up database</t>
-  </si>
-  <si>
     <t xml:space="preserve">Define API schema </t>
   </si>
   <si>
@@ -221,6 +218,36 @@
   </si>
   <si>
     <t>Cloud intigration Research</t>
+  </si>
+  <si>
+    <t>As a user I can initialise a single player quiz</t>
+  </si>
+  <si>
+    <t>Host Setting Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset to JSON </t>
+  </si>
+  <si>
+    <t>Node Test</t>
+  </si>
+  <si>
+    <t>Node Server Setup</t>
+  </si>
+  <si>
+    <t>Find dataset</t>
+  </si>
+  <si>
+    <t>Research Sync Communication between clients and server</t>
+  </si>
+  <si>
+    <t>create cloud Infrastructure for Node and DB</t>
+  </si>
+  <si>
+    <t>Investigate games integration into teams</t>
+  </si>
+  <si>
+    <t>Robert, Paul, Ryan</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -515,9 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -536,24 +560,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,19 +720,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +769,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1921,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,29 +1980,29 @@
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="32"/>
       <c r="O1" s="33"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -2005,9 +2033,9 @@
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>45</v>
+    <row r="3" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>17</v>
@@ -2020,27 +2048,29 @@
         <v>1</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F29" si="0">E3 - SUM(I3:M3)</f>
-        <v>1</v>
+        <f t="shared" ref="F3:F36" si="0">E3 - SUM(I3:M3)</f>
+        <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="17"/>
       <c r="N3" s="9"/>
       <c r="O3" s="27" t="str">
         <f>IF(F3 = 0,"Yes","No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45"/>
       <c r="C4" s="51" t="s">
         <v>16</v>
@@ -2052,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="22"/>
@@ -2062,17 +2092,17 @@
       <c r="M4" s="15"/>
       <c r="N4" s="9"/>
       <c r="O4" s="27" t="str">
-        <f t="shared" ref="O4:O29" si="1">IF(F4 = 0,"Yes","No")</f>
+        <f t="shared" ref="O4:O36" si="1">IF(F4 = 0,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="56">
         <v>2</v>
@@ -2082,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="22">
@@ -2100,11 +2130,11 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="45"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="56">
         <v>2</v>
@@ -2114,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="22">
@@ -2132,11 +2162,11 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="45"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="56">
         <v>2</v>
@@ -2146,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="22">
@@ -2164,26 +2194,24 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="45"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51" t="s">
-        <v>61</v>
-      </c>
+      <c r="C8" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="51"/>
       <c r="E8" s="56">
         <v>2</v>
       </c>
       <c r="F8" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="22">
-        <v>2</v>
-      </c>
+      <c r="I8" s="22"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2191,26 +2219,26 @@
       <c r="N8" s="9"/>
       <c r="O8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="45" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="74"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="51" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="56">
+        <v>2</v>
+      </c>
       <c r="F9" s="55">
-        <f>SUM(E10:E12) - SUM(I10:M12)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="22"/>
@@ -2225,56 +2253,56 @@
       </c>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51" t="s">
-        <v>59</v>
-      </c>
+      <c r="C10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="51"/>
       <c r="E10" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="8">
-        <v>2</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="15"/>
       <c r="N10" s="9"/>
       <c r="O10" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="56">
-        <v>2</v>
+      <c r="A11" s="28"/>
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="55">
+        <v>3</v>
       </c>
       <c r="F11" s="55">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="9"/>
+        <f>E11 - SUM(I11:M11)</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="26"/>
       <c r="I11" s="22"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2282,27 +2310,27 @@
       <c r="M11" s="15"/>
       <c r="N11" s="9"/>
       <c r="O11" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F11 = 0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
-        <v>59</v>
-      </c>
+      <c r="C12" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="51"/>
       <c r="E12" s="56">
         <v>2</v>
       </c>
       <c r="F12" s="55">
-        <f t="shared" si="0"/>
+        <f>E12 - SUM(I12:M12)</f>
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="22"/>
@@ -2312,7 +2340,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="9"/>
       <c r="O12" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F12 = 0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P12" s="8"/>
@@ -2325,47 +2353,41 @@
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="55">
-        <f t="shared" si="0"/>
+        <f>E13 - SUM(I13:M13)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>41</v>
+      <c r="G13" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="22">
-        <v>1</v>
-      </c>
+      <c r="I13" s="22"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="15"/>
       <c r="N13" s="9"/>
       <c r="O13" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F13 = 0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="46"/>
       <c r="C14" s="52" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D14" s="52"/>
-      <c r="E14" s="57">
-        <v>3</v>
-      </c>
+      <c r="E14" s="57"/>
       <c r="F14" s="55">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>38</v>
-      </c>
+        <f>E14 - SUM(I14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="9"/>
       <c r="I14" s="22"/>
       <c r="J14" s="8"/>
@@ -2374,129 +2396,115 @@
       <c r="M14" s="15"/>
       <c r="N14" s="9"/>
       <c r="O14" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
+        <f>IF(F14 = 0,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="55">
-        <v>1</v>
+      <c r="B15" s="45"/>
+      <c r="C15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="56">
+        <v>2</v>
       </c>
       <c r="F15" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>57</v>
-      </c>
+        <f t="shared" ref="F15:F16" si="2">E15 - SUM(I15:M15)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="22">
-        <v>1</v>
-      </c>
+      <c r="I15" s="22"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="15"/>
       <c r="N15" s="9"/>
       <c r="O15" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
+        <f t="shared" ref="O15:O16" si="3">IF(F15 = 0,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="45"/>
-      <c r="C16" s="51" t="s">
-        <v>35</v>
-      </c>
+      <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="56">
-        <v>1</v>
-      </c>
+      <c r="E16" s="56"/>
       <c r="F16" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
+      <c r="I16" s="22"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="15"/>
       <c r="N16" s="9"/>
       <c r="O16" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="57">
-        <v>1</v>
+      <c r="A17" s="74"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="56">
+        <v>2</v>
       </c>
       <c r="F17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="25"/>
+      <c r="G17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="55">
-        <v>3</v>
-      </c>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="26"/>
+        <f>SUM(E19:E21) - SUM(I19:M21)</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="22"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2510,51 +2518,55 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="55">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="15"/>
       <c r="N19" s="9"/>
       <c r="O19" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="45"/>
-      <c r="C20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="55">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="22"/>
@@ -2570,16 +2582,22 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="56">
+        <v>4</v>
+      </c>
       <c r="F21" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="22"/>
       <c r="J21" s="8"/>
@@ -2589,68 +2607,68 @@
       <c r="N21" s="9"/>
       <c r="O21" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
-      <c r="B22" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="51" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
       <c r="J22" s="8">
         <v>1</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="25"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="56">
-        <v>1</v>
+      <c r="B23" s="46"/>
+      <c r="C23" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="57">
+        <v>3</v>
       </c>
       <c r="F23" s="55">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2658,59 +2676,65 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="57">
+      <c r="A24" s="28"/>
+      <c r="B24" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="55">
         <v>1</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="55">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="22">
         <v>1</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="63"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="56">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="56">
+        <v>1</v>
+      </c>
+      <c r="F25" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="35"/>
+      <c r="G25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="22">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
@@ -2718,23 +2742,31 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="61">
+      <c r="A26" s="28"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="57">
+        <v>1</v>
+      </c>
+      <c r="F26" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="35"/>
+      <c r="G26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
@@ -2742,57 +2774,69 @@
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="61">
+      <c r="A27" s="28"/>
+      <c r="B27" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="56">
+        <v>4</v>
+      </c>
+      <c r="F27" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="75">
+        <v>2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="58">
-        <v>5</v>
-      </c>
-      <c r="F28" s="57">
+      <c r="B28" s="47"/>
+      <c r="C28" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="56">
+        <v>4</v>
+      </c>
+      <c r="F28" s="55">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="10">
         <v>1</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="13">
+        <v>2</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2800,41 +2844,248 @@
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="61">
+      <c r="A29" s="28"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="56">
+        <v>4</v>
+      </c>
+      <c r="F29" s="55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="56">
+        <v>8</v>
+      </c>
+      <c r="F30" s="55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="57">
+        <v>4</v>
+      </c>
+      <c r="F31" s="60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="62"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="27" t="str">
+      <c r="G32" s="10"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M30" s="8"/>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="66"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="58">
+        <v>5</v>
+      </c>
+      <c r="F35" s="57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M37" s="8"/>
+      <c r="N37" s="32"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="I1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
@@ -2922,31 +3173,31 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM('Sprint 2 Backlog'!E:E)</f>
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2968,23 +3219,23 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:I)</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:J)</f>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:K)</f>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:L)</f>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!I:M)</f>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
